--- a/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/спрос_17-2-2025 2 нед с 3-2-2025 по 17-2-2025_sorted.xlsx
+++ b/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/спрос_17-2-2025 2 нед с 3-2-2025 по 17-2-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.02.2025\2 нед с 03.02.2025 по 17.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36FDCA4-C8CA-4C25-8FCA-FD81F0DFE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0EA84-B9E2-41DB-A79A-42C62BF91814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,12 +450,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -730,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,211 +921,211 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>33</v>
       </c>
-      <c r="E6">
-        <v>30</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
         <v>60</v>
       </c>
-      <c r="G6">
-        <v>1825</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2.1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
         <v>50</v>
       </c>
-      <c r="G7">
-        <v>1825</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2.1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
         <v>44</v>
       </c>
-      <c r="G8">
-        <v>1825</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>62</v>
       </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3">
         <v>44</v>
       </c>
-      <c r="G9">
-        <v>1825</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>54</v>
       </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3">
         <v>40</v>
       </c>
-      <c r="G10">
-        <v>1825</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3">
         <v>38</v>
       </c>
-      <c r="G11">
-        <v>1825</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1.4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>35</v>
       </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
         <v>32</v>
       </c>
-      <c r="G12">
-        <v>1825</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1100,31 +1135,31 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>32</v>
       </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
         <v>32</v>
       </c>
-      <c r="G13">
-        <v>1825</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1134,31 +1169,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>1.5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>16</v>
       </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14">
-        <v>1825</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14">
+      <c r="D14" s="4">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1168,31 +1203,31 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="4">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4">
         <v>26</v>
       </c>
-      <c r="G15">
-        <v>1825</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1202,31 +1237,31 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>0.9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>10</v>
       </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="4">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4">
         <v>26</v>
       </c>
-      <c r="G16">
-        <v>1825</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1236,2611 +1271,2611 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>1.3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>20</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>52</v>
       </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
         <v>20</v>
       </c>
-      <c r="G17">
-        <v>1825</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>1.2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="4">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
         <v>20</v>
       </c>
-      <c r="G18">
-        <v>1825</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1.8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>36</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>47</v>
       </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="4">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>1825</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4">
         <v>18</v>
       </c>
-      <c r="G20">
-        <v>1825</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>15</v>
       </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="4">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4">
         <v>18</v>
       </c>
-      <c r="G21">
-        <v>1825</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="4">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4">
         <v>18</v>
       </c>
-      <c r="G22">
-        <v>1825</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>16</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>20</v>
       </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="4">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4">
         <v>18</v>
       </c>
-      <c r="G23">
-        <v>1825</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>19</v>
       </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="4">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
         <v>18</v>
       </c>
-      <c r="G24">
-        <v>1825</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.9</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>11</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="4">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4">
         <v>16</v>
       </c>
-      <c r="G25">
-        <v>1825</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0.5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>30</v>
+      </c>
+      <c r="F26" s="4">
         <v>16</v>
       </c>
-      <c r="G26">
-        <v>1825</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26">
+      <c r="G26" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>0.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27">
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4">
         <v>16</v>
       </c>
-      <c r="G27">
-        <v>1825</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>0.6</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="4">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4">
         <v>14</v>
       </c>
-      <c r="G28">
-        <v>1825</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>0.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>10</v>
       </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="4">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4">
         <v>14</v>
       </c>
-      <c r="G29">
-        <v>1825</v>
-      </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>0.5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>10</v>
       </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="4">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4">
         <v>14</v>
       </c>
-      <c r="G30">
-        <v>1825</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30">
+      <c r="G30" s="4">
+        <v>1825</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>0.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>15</v>
       </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="5">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5">
         <v>14</v>
       </c>
-      <c r="G31">
-        <v>1825</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>0.6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>18</v>
       </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="5">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
         <v>14</v>
       </c>
-      <c r="G32">
-        <v>1825</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32">
+      <c r="G32" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>0.6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>7</v>
       </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="5">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5">
         <v>12</v>
       </c>
-      <c r="G33">
-        <v>1825</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33">
+      <c r="G33" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>0.5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>15</v>
       </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="5">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5">
         <v>12</v>
       </c>
-      <c r="G34">
-        <v>1825</v>
-      </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34">
+      <c r="G34" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>0.4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>11</v>
       </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="5">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5">
         <v>12</v>
       </c>
-      <c r="G35">
-        <v>1825</v>
-      </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35">
+      <c r="G35" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>0.7</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>14</v>
       </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="F36">
+      <c r="E36" s="5">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5">
         <v>12</v>
       </c>
-      <c r="G36">
-        <v>1825</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36">
+      <c r="G36" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>0.6</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>7</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>15</v>
       </c>
-      <c r="E37">
-        <v>30</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="5">
+        <v>30</v>
+      </c>
+      <c r="F37" s="5">
         <v>12</v>
       </c>
-      <c r="G37">
-        <v>1825</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37">
+      <c r="G37" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>0.5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>8</v>
       </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="5">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5">
         <v>12</v>
       </c>
-      <c r="G38">
-        <v>1825</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38">
+      <c r="G38" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>1.3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>29</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>46</v>
       </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
+      <c r="E39" s="5">
+        <v>30</v>
+      </c>
+      <c r="F39" s="5">
         <v>10</v>
       </c>
-      <c r="G39">
-        <v>1825</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39">
+      <c r="G39" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>0.6</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>32</v>
       </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="5">
+        <v>30</v>
+      </c>
+      <c r="F40" s="5">
         <v>10</v>
       </c>
-      <c r="G40">
-        <v>1825</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40">
+      <c r="G40" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>0.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>12</v>
       </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="5">
+        <v>30</v>
+      </c>
+      <c r="F41" s="5">
         <v>10</v>
       </c>
-      <c r="G41">
-        <v>1825</v>
-      </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41">
+      <c r="G41" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>0.6</v>
       </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="5">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5">
         <v>6</v>
       </c>
-      <c r="E42">
-        <v>30</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="5">
+        <v>30</v>
+      </c>
+      <c r="F42" s="5">
         <v>10</v>
       </c>
-      <c r="G42">
-        <v>1825</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42">
+      <c r="G42" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>0.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="F43">
+      <c r="D43" s="5">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5">
+        <v>30</v>
+      </c>
+      <c r="F43" s="5">
         <v>10</v>
       </c>
-      <c r="G43">
-        <v>1825</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43">
+      <c r="G43" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>0.5</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>6</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>13</v>
       </c>
-      <c r="E44">
-        <v>30</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="5">
+        <v>30</v>
+      </c>
+      <c r="F44" s="5">
         <v>10</v>
       </c>
-      <c r="G44">
-        <v>1825</v>
-      </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44">
+      <c r="G44" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>0.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>21</v>
       </c>
-      <c r="E45">
-        <v>30</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="5">
+        <v>30</v>
+      </c>
+      <c r="F45" s="5">
         <v>10</v>
       </c>
-      <c r="G45">
-        <v>1825</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45">
+      <c r="G45" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>0.4</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>17</v>
       </c>
-      <c r="E46">
-        <v>30</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="5">
+        <v>30</v>
+      </c>
+      <c r="F46" s="5">
         <v>10</v>
       </c>
-      <c r="G46">
-        <v>1825</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46">
+      <c r="G46" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>0.4</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>13</v>
       </c>
-      <c r="E47">
-        <v>30</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="5">
+        <v>30</v>
+      </c>
+      <c r="F47" s="5">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>1825</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47">
+      <c r="G47" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>0.3</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>0</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>15</v>
       </c>
-      <c r="E48">
-        <v>30</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="5">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5">
         <v>10</v>
       </c>
-      <c r="G48">
-        <v>1825</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48">
+      <c r="G48" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>0.3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>10</v>
       </c>
-      <c r="E49">
-        <v>30</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="5">
+        <v>30</v>
+      </c>
+      <c r="F49" s="5">
         <v>10</v>
       </c>
-      <c r="G49">
-        <v>1825</v>
-      </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49">
+      <c r="G49" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>0.3</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>16</v>
       </c>
-      <c r="E50">
-        <v>30</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="5">
+        <v>30</v>
+      </c>
+      <c r="F50" s="5">
         <v>10</v>
       </c>
-      <c r="G50">
-        <v>1825</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50">
+      <c r="G50" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>0.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>7</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>6</v>
       </c>
-      <c r="E51">
-        <v>30</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="5">
+        <v>30</v>
+      </c>
+      <c r="F51" s="5">
         <v>8</v>
       </c>
-      <c r="G51">
-        <v>1825</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51">
+      <c r="G51" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>0.5</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>7</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>10</v>
       </c>
-      <c r="E52">
-        <v>30</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="5">
+        <v>30</v>
+      </c>
+      <c r="F52" s="5">
         <v>8</v>
       </c>
-      <c r="G52">
-        <v>1825</v>
-      </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52">
+      <c r="G52" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>0.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>7</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>17</v>
       </c>
-      <c r="E53">
-        <v>30</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="5">
+        <v>30</v>
+      </c>
+      <c r="F53" s="5">
         <v>8</v>
       </c>
-      <c r="G53">
-        <v>1825</v>
-      </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53">
+      <c r="G53" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>62</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>25</v>
       </c>
-      <c r="E54">
-        <v>30</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="5">
+        <v>30</v>
+      </c>
+      <c r="F54" s="5">
         <v>8</v>
       </c>
-      <c r="G54">
-        <v>1825</v>
-      </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54">
+      <c r="G54" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>0.7</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>14</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>25</v>
       </c>
-      <c r="E55">
-        <v>30</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="5">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5">
         <v>8</v>
       </c>
-      <c r="G55">
-        <v>1825</v>
-      </c>
-      <c r="H55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55">
+      <c r="G55" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>0.5</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>8</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>22</v>
       </c>
-      <c r="E56">
-        <v>30</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="5">
+        <v>30</v>
+      </c>
+      <c r="F56" s="5">
         <v>8</v>
       </c>
-      <c r="G56">
-        <v>1825</v>
-      </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56">
+      <c r="G56" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>0.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>8</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>21</v>
       </c>
-      <c r="E57">
-        <v>30</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="5">
+        <v>30</v>
+      </c>
+      <c r="F57" s="5">
         <v>8</v>
       </c>
-      <c r="G57">
-        <v>1825</v>
-      </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57">
+      <c r="G57" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>0.3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>2</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>7</v>
       </c>
-      <c r="E58">
-        <v>30</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="5">
+        <v>30</v>
+      </c>
+      <c r="F58" s="5">
         <v>8</v>
       </c>
-      <c r="G58">
-        <v>1825</v>
-      </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58">
+      <c r="G58" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>1.4</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>36</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <v>65</v>
       </c>
-      <c r="E59">
-        <v>30</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="5">
+        <v>30</v>
+      </c>
+      <c r="F59" s="5">
         <v>6</v>
       </c>
-      <c r="G59">
-        <v>1825</v>
-      </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59">
+      <c r="G59" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>0.5</v>
       </c>
-      <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60">
+      <c r="C60" s="5">
+        <v>9</v>
+      </c>
+      <c r="D60" s="5">
         <v>3</v>
       </c>
-      <c r="E60">
-        <v>30</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="5">
+        <v>30</v>
+      </c>
+      <c r="F60" s="5">
         <v>6</v>
       </c>
-      <c r="G60">
-        <v>1825</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60">
+      <c r="G60" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>0.4</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>6</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>14</v>
       </c>
-      <c r="E61">
-        <v>30</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="5">
+        <v>30</v>
+      </c>
+      <c r="F61" s="5">
         <v>6</v>
       </c>
-      <c r="G61">
-        <v>1825</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61">
+      <c r="G61" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>0.3</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="5">
         <v>7</v>
       </c>
-      <c r="E62">
-        <v>30</v>
-      </c>
-      <c r="F62">
+      <c r="E62" s="5">
+        <v>30</v>
+      </c>
+      <c r="F62" s="5">
         <v>6</v>
       </c>
-      <c r="G62">
-        <v>1825</v>
-      </c>
-      <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62">
+      <c r="G62" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>0.2</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="E63">
-        <v>30</v>
-      </c>
-      <c r="F63">
+      <c r="D63" s="5">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5">
+        <v>30</v>
+      </c>
+      <c r="F63" s="5">
         <v>6</v>
       </c>
-      <c r="G63">
-        <v>1825</v>
-      </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63">
+      <c r="G63" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>0.2</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>7</v>
       </c>
-      <c r="E64">
-        <v>30</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="5">
+        <v>30</v>
+      </c>
+      <c r="F64" s="5">
         <v>6</v>
       </c>
-      <c r="G64">
-        <v>1825</v>
-      </c>
-      <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64">
+      <c r="G64" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>0.2</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>0</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <v>4</v>
       </c>
-      <c r="E65">
-        <v>30</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="5">
+        <v>30</v>
+      </c>
+      <c r="F65" s="5">
         <v>6</v>
       </c>
-      <c r="G65">
-        <v>1825</v>
-      </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65">
+      <c r="G65" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>0.7</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>16</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="5">
         <v>29</v>
       </c>
-      <c r="E66">
-        <v>30</v>
-      </c>
-      <c r="F66">
+      <c r="E66" s="5">
+        <v>30</v>
+      </c>
+      <c r="F66" s="5">
         <v>6</v>
       </c>
-      <c r="G66">
-        <v>1825</v>
-      </c>
-      <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66">
+      <c r="G66" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>0.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>10</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5">
         <v>10</v>
       </c>
-      <c r="E67">
-        <v>30</v>
-      </c>
-      <c r="F67">
+      <c r="E67" s="5">
+        <v>30</v>
+      </c>
+      <c r="F67" s="5">
         <v>6</v>
       </c>
-      <c r="G67">
-        <v>1825</v>
-      </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67">
+      <c r="G67" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="5">
         <f t="shared" ref="I67:I103" si="1">F67/2</f>
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>0.5</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>10</v>
       </c>
-      <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>30</v>
-      </c>
-      <c r="F68">
+      <c r="D68" s="5">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5">
+        <v>30</v>
+      </c>
+      <c r="F68" s="5">
         <v>6</v>
       </c>
-      <c r="G68">
-        <v>1825</v>
-      </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68">
+      <c r="G68" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>0.4</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>7</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <v>23</v>
       </c>
-      <c r="E69">
-        <v>30</v>
-      </c>
-      <c r="F69">
+      <c r="E69" s="5">
+        <v>30</v>
+      </c>
+      <c r="F69" s="5">
         <v>6</v>
       </c>
-      <c r="G69">
-        <v>1825</v>
-      </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69">
+      <c r="G69" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>0.3</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>6</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <v>6</v>
       </c>
-      <c r="E70">
-        <v>30</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="5">
+        <v>30</v>
+      </c>
+      <c r="F70" s="5">
         <v>4</v>
       </c>
-      <c r="G70">
-        <v>1825</v>
-      </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70">
+      <c r="G70" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>0.3</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>6</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>4</v>
       </c>
-      <c r="E71">
-        <v>30</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="6">
+        <v>30</v>
+      </c>
+      <c r="F71" s="6">
         <v>4</v>
       </c>
-      <c r="G71">
-        <v>1825</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71">
+      <c r="G71" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>0.1</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>0</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>16</v>
       </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="6">
+        <v>30</v>
+      </c>
+      <c r="F72" s="6">
         <v>4</v>
       </c>
-      <c r="G72">
-        <v>1825</v>
-      </c>
-      <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72">
+      <c r="G72" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>0.1</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="6">
         <v>0</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="6">
         <v>2</v>
       </c>
-      <c r="E73">
-        <v>30</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="6">
+        <v>30</v>
+      </c>
+      <c r="F73" s="6">
         <v>4</v>
       </c>
-      <c r="G73">
-        <v>1825</v>
-      </c>
-      <c r="H73" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73">
+      <c r="G73" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>0.1</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>0</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="6">
         <v>6</v>
       </c>
-      <c r="E74">
-        <v>30</v>
-      </c>
-      <c r="F74">
+      <c r="E74" s="6">
+        <v>30</v>
+      </c>
+      <c r="F74" s="6">
         <v>4</v>
       </c>
-      <c r="G74">
-        <v>1825</v>
-      </c>
-      <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74">
+      <c r="G74" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>0.1</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>0</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <v>1</v>
       </c>
-      <c r="E75">
-        <v>30</v>
-      </c>
-      <c r="F75">
+      <c r="E75" s="6">
+        <v>30</v>
+      </c>
+      <c r="F75" s="6">
         <v>4</v>
       </c>
-      <c r="G75">
-        <v>1825</v>
-      </c>
-      <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75">
+      <c r="G75" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>0.1</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>0</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>6</v>
       </c>
-      <c r="E76">
-        <v>30</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="6">
+        <v>30</v>
+      </c>
+      <c r="F76" s="6">
         <v>4</v>
       </c>
-      <c r="G76">
-        <v>1825</v>
-      </c>
-      <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76">
+      <c r="G76" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>0.1</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="6">
         <v>0</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>6</v>
       </c>
-      <c r="E77">
-        <v>30</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="6">
+        <v>30</v>
+      </c>
+      <c r="F77" s="6">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>1825</v>
-      </c>
-      <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77">
+      <c r="G77" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>0.1</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>0</v>
       </c>
-      <c r="D78">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>30</v>
-      </c>
-      <c r="F78">
+      <c r="D78" s="6">
+        <v>9</v>
+      </c>
+      <c r="E78" s="6">
+        <v>30</v>
+      </c>
+      <c r="F78" s="6">
         <v>4</v>
       </c>
-      <c r="G78">
-        <v>1825</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78">
+      <c r="G78" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>0.3</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
         <v>7</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>10</v>
       </c>
-      <c r="E79">
-        <v>30</v>
-      </c>
-      <c r="F79">
+      <c r="E79" s="6">
+        <v>30</v>
+      </c>
+      <c r="F79" s="6">
         <v>2</v>
       </c>
-      <c r="G79">
-        <v>1825</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79">
+      <c r="G79" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="6">
         <v>0.2</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
         <v>4</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="6">
         <v>4</v>
       </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="F80">
+      <c r="E80" s="6">
+        <v>30</v>
+      </c>
+      <c r="F80" s="6">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>1825</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80">
+      <c r="G80" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="6">
         <v>0.4</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="6">
         <v>11</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>21</v>
       </c>
-      <c r="E81">
-        <v>30</v>
-      </c>
-      <c r="F81">
+      <c r="E81" s="6">
+        <v>30</v>
+      </c>
+      <c r="F81" s="6">
         <v>2</v>
       </c>
-      <c r="G81">
-        <v>1825</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81">
+      <c r="G81" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>0.3</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="6">
         <v>8</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>3</v>
       </c>
-      <c r="E82">
-        <v>30</v>
-      </c>
-      <c r="F82">
+      <c r="E82" s="6">
+        <v>30</v>
+      </c>
+      <c r="F82" s="6">
         <v>2</v>
       </c>
-      <c r="G82">
-        <v>1825</v>
-      </c>
-      <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82">
+      <c r="G82" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="6">
         <v>0.3</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="6">
         <v>8</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>15</v>
       </c>
-      <c r="E83">
-        <v>30</v>
-      </c>
-      <c r="F83">
+      <c r="E83" s="6">
+        <v>30</v>
+      </c>
+      <c r="F83" s="6">
         <v>2</v>
       </c>
-      <c r="G83">
-        <v>1825</v>
-      </c>
-      <c r="H83" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83">
+      <c r="G83" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>0.1</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="6">
         <v>2</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>14</v>
       </c>
-      <c r="E84">
-        <v>30</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="6">
+        <v>30</v>
+      </c>
+      <c r="F84" s="6">
         <v>2</v>
       </c>
-      <c r="G84">
-        <v>1825</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84">
+      <c r="G84" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>3.8</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="6">
         <v>22</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>51</v>
       </c>
-      <c r="E85">
-        <v>30</v>
-      </c>
-      <c r="F85">
+      <c r="E85" s="6">
+        <v>30</v>
+      </c>
+      <c r="F85" s="6">
         <v>88</v>
       </c>
-      <c r="G85">
-        <v>1825</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G85" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="6">
         <f>F85/4</f>
         <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>2</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="6">
         <v>29</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>104</v>
       </c>
-      <c r="E86">
-        <v>30</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="6">
+        <v>30</v>
+      </c>
+      <c r="F86" s="6">
         <v>32</v>
       </c>
-      <c r="G86">
-        <v>1825</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G86" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="6">
         <f t="shared" ref="I86:I100" si="2">F86/4</f>
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>2</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="6">
         <v>32</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>40</v>
       </c>
-      <c r="E87">
-        <v>30</v>
-      </c>
-      <c r="F87">
+      <c r="E87" s="6">
+        <v>30</v>
+      </c>
+      <c r="F87" s="6">
         <v>28</v>
       </c>
-      <c r="G87">
-        <v>1825</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="G87" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>0.7</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>3</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>10</v>
       </c>
-      <c r="E88">
-        <v>30</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="6">
+        <v>30</v>
+      </c>
+      <c r="F88" s="6">
         <v>20</v>
       </c>
-      <c r="G88">
-        <v>1825</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>0.9</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="6">
         <v>10</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>15</v>
       </c>
-      <c r="E89">
-        <v>30</v>
-      </c>
-      <c r="F89">
+      <c r="E89" s="6">
+        <v>30</v>
+      </c>
+      <c r="F89" s="6">
         <v>20</v>
       </c>
-      <c r="G89">
-        <v>1825</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G89" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>0.7</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="6">
         <v>7</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>1</v>
       </c>
-      <c r="E90">
-        <v>30</v>
-      </c>
-      <c r="F90">
+      <c r="E90" s="6">
+        <v>30</v>
+      </c>
+      <c r="F90" s="6">
         <v>16</v>
       </c>
-      <c r="G90">
-        <v>1825</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G90" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>0.5</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <v>5</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>55</v>
       </c>
-      <c r="E91">
-        <v>30</v>
-      </c>
-      <c r="F91">
+      <c r="E91" s="6">
+        <v>30</v>
+      </c>
+      <c r="F91" s="6">
         <v>12</v>
       </c>
-      <c r="G91">
-        <v>1825</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G91" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>0.4</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>14</v>
       </c>
-      <c r="E92">
-        <v>30</v>
-      </c>
-      <c r="F92">
+      <c r="E92" s="6">
+        <v>30</v>
+      </c>
+      <c r="F92" s="6">
         <v>12</v>
       </c>
-      <c r="G92">
-        <v>1825</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="G92" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="6">
         <v>0.5</v>
       </c>
-      <c r="C93">
-        <v>9</v>
-      </c>
-      <c r="D93">
+      <c r="C93" s="6">
+        <v>9</v>
+      </c>
+      <c r="D93" s="6">
         <v>12</v>
       </c>
-      <c r="E93">
-        <v>30</v>
-      </c>
-      <c r="F93">
+      <c r="E93" s="6">
+        <v>30</v>
+      </c>
+      <c r="F93" s="6">
         <v>8</v>
       </c>
-      <c r="G93">
-        <v>1825</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="G93" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="6">
         <v>0.4</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="6">
         <v>6</v>
       </c>
-      <c r="D94">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>30</v>
-      </c>
-      <c r="F94">
+      <c r="D94" s="6">
+        <v>9</v>
+      </c>
+      <c r="E94" s="6">
+        <v>30</v>
+      </c>
+      <c r="F94" s="6">
         <v>8</v>
       </c>
-      <c r="G94">
-        <v>1825</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G94" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="6">
         <v>0.5</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="6">
         <v>10</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="6">
         <v>12</v>
       </c>
-      <c r="E95">
-        <v>30</v>
-      </c>
-      <c r="F95">
+      <c r="E95" s="6">
+        <v>30</v>
+      </c>
+      <c r="F95" s="6">
         <v>8</v>
       </c>
-      <c r="G95">
-        <v>1825</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="G95" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="6">
         <v>0.3</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="6">
         <v>5</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
         <v>14</v>
       </c>
-      <c r="E96">
-        <v>30</v>
-      </c>
-      <c r="F96">
+      <c r="E96" s="6">
+        <v>30</v>
+      </c>
+      <c r="F96" s="6">
         <v>4</v>
       </c>
-      <c r="G96">
-        <v>1825</v>
-      </c>
-      <c r="H96" t="s">
+      <c r="G96" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="6">
         <v>0.3</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="6">
         <v>6</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="6">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>30</v>
-      </c>
-      <c r="F97">
+      <c r="E97" s="6">
+        <v>30</v>
+      </c>
+      <c r="F97" s="6">
         <v>4</v>
       </c>
-      <c r="G97">
-        <v>1825</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="6">
         <v>0.2</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="6">
         <v>5</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6">
         <v>5</v>
       </c>
-      <c r="E98">
-        <v>30</v>
-      </c>
-      <c r="F98">
+      <c r="E98" s="6">
+        <v>30</v>
+      </c>
+      <c r="F98" s="6">
         <v>4</v>
       </c>
-      <c r="G98">
-        <v>1825</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>0.1</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="6">
         <v>2</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
         <v>1</v>
       </c>
-      <c r="E99">
-        <v>30</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="6">
+        <v>30</v>
+      </c>
+      <c r="F99" s="6">
         <v>4</v>
       </c>
-      <c r="G99">
-        <v>1825</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>0.1</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="6">
         <v>2</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="6">
         <v>1</v>
       </c>
-      <c r="E100">
-        <v>30</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="6">
+        <v>30</v>
+      </c>
+      <c r="F100" s="6">
         <v>4</v>
       </c>
-      <c r="G100">
-        <v>1825</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G100" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="7">
         <v>0.3</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="7">
         <v>1</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="7">
         <v>6</v>
       </c>
-      <c r="E101">
-        <v>30</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="7">
+        <v>30</v>
+      </c>
+      <c r="F101" s="7">
         <v>8</v>
       </c>
-      <c r="G101">
-        <v>1825</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="7">
         <v>0.4</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="7">
         <v>6</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="7">
         <v>11</v>
       </c>
-      <c r="E102">
-        <v>30</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="7">
+        <v>30</v>
+      </c>
+      <c r="F102" s="7">
         <v>6</v>
       </c>
-      <c r="G102">
-        <v>1825</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="7">
         <v>0.1</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="7">
         <v>0</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="7">
         <v>11</v>
       </c>
-      <c r="E103">
-        <v>30</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="7">
+        <v>30</v>
+      </c>
+      <c r="F103" s="7">
         <v>4</v>
       </c>
-      <c r="G103">
-        <v>1825</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="G103" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>

--- a/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/спрос_17-2-2025 2 нед с 3-2-2025 по 17-2-2025_sorted.xlsx
+++ b/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/спрос_17-2-2025 2 нед с 3-2-2025 по 17-2-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.02.2025\2 нед с 03.02.2025 по 17.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC0EA84-B9E2-41DB-A79A-42C62BF91814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA898B-9C50-4F8F-B4AE-ED48D126831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I66" si="0">F3/2</f>
+        <f t="shared" ref="I3:I63" si="0">F3/2</f>
         <v>45</v>
       </c>
     </row>
@@ -1198,8 +1198,8 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <f>SUM(F14:F30)</f>
-        <v>320</v>
+        <f>SUM(F14:F29)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,8 +1232,8 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <f>SUM(F31:F70)</f>
-        <v>354</v>
+        <f>SUM(F30:F67)</f>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <f>SUM(F71:F103)</f>
+        <f>SUM(F68:F100)</f>
         <v>334</v>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -1572,22 +1572,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" s="4">
         <v>30</v>
       </c>
       <c r="F27" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="4">
         <v>1825</v>
@@ -1597,21 +1597,21 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4">
         <v>30</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4">
         <v>0.5</v>
@@ -1661,47 +1661,47 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
         <v>0.5</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4">
-        <v>30</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="D30" s="5">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5">
         <v>14</v>
       </c>
-      <c r="G30" s="4">
-        <v>1825</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="G30" s="5">
+        <v>1825</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C31" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5">
         <v>30</v>
@@ -1722,22 +1722,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E32" s="5">
         <v>30</v>
       </c>
       <c r="F32" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" s="5">
         <v>1825</v>
@@ -1747,21 +1747,21 @@
       </c>
       <c r="I32" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C33" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" s="5">
         <v>30</v>
@@ -1782,16 +1782,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C34" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D34" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5">
         <v>30</v>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C35" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E35" s="5">
         <v>30</v>
@@ -1842,16 +1842,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C36" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D36" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5">
         <v>30</v>
@@ -1872,22 +1872,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="5">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="C37" s="5">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E37" s="5">
         <v>30</v>
       </c>
       <c r="F37" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="5">
         <v>1825</v>
@@ -1897,27 +1897,27 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C38" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5">
         <v>30</v>
       </c>
       <c r="F38" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="5">
         <v>1825</v>
@@ -1927,21 +1927,21 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="5">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C39" s="5">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D39" s="5">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5">
         <v>30</v>
@@ -1962,16 +1962,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5">
         <v>0.6</v>
       </c>
       <c r="C40" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E40" s="5">
         <v>30</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="5">
         <v>0.5</v>
       </c>
       <c r="C41" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E41" s="5">
         <v>30</v>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C42" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D42" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E42" s="5">
         <v>30</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B43" s="5">
         <v>0.5</v>
@@ -2061,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E43" s="5">
         <v>30</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C44" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" s="5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44" s="5">
         <v>30</v>
@@ -2112,16 +2112,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C45" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" s="5">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5">
         <v>30</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C46" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D46" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5">
         <v>30</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B47" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C47" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="5">
         <v>30</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="5">
         <v>0.3</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="5">
         <v>30</v>
@@ -2232,22 +2232,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B49" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C49" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5">
         <v>30</v>
       </c>
       <c r="F49" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" s="5">
         <v>1825</v>
@@ -2257,27 +2257,27 @@
       </c>
       <c r="I49" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C50" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="5">
         <v>30</v>
       </c>
       <c r="F50" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50" s="5">
         <v>1825</v>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="I50" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5">
         <v>0.5</v>
@@ -2301,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5">
         <v>30</v>
@@ -2322,16 +2322,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C52" s="5">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D52" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5">
         <v>30</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" s="5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C53" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5">
         <v>30</v>
@@ -2382,16 +2382,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54" s="5">
-        <v>2.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="5">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="D54" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E54" s="5">
         <v>30</v>
@@ -2412,16 +2412,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" s="5">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C55" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E55" s="5">
         <v>30</v>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C56" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D56" s="5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E56" s="5">
         <v>30</v>
@@ -2472,22 +2472,22 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" s="5">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="C57" s="5">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D57" s="5">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E57" s="5">
         <v>30</v>
       </c>
       <c r="F57" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G57" s="5">
         <v>1825</v>
@@ -2497,27 +2497,27 @@
       </c>
       <c r="I57" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C58" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D58" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5">
         <v>30</v>
       </c>
       <c r="F58" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G58" s="5">
         <v>1825</v>
@@ -2527,21 +2527,21 @@
       </c>
       <c r="I58" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="5">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="C59" s="5">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D59" s="5">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E59" s="5">
         <v>30</v>
@@ -2562,16 +2562,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C60" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D60" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E60" s="5">
         <v>30</v>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C61" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D61" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E61" s="5">
         <v>30</v>
@@ -2622,16 +2622,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B62" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C62" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D62" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5">
         <v>30</v>
@@ -2652,16 +2652,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="C63" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D63" s="5">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E63" s="5">
         <v>30</v>
@@ -2682,16 +2682,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B64" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C64" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E64" s="5">
         <v>30</v>
@@ -2706,22 +2706,22 @@
         <v>9</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I64:I100" si="1">F64/2</f>
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D65" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E65" s="5">
         <v>30</v>
@@ -2736,22 +2736,22 @@
         <v>9</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C66" s="5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D66" s="5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E66" s="5">
         <v>30</v>
@@ -2766,28 +2766,28 @@
         <v>9</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B67" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C67" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E67" s="5">
         <v>30</v>
       </c>
       <c r="F67" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G67" s="5">
         <v>1825</v>
@@ -2796,112 +2796,112 @@
         <v>9</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I103" si="1">F67/2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C68" s="5">
-        <v>10</v>
-      </c>
-      <c r="D68" s="5">
-        <v>9</v>
-      </c>
-      <c r="E68" s="5">
-        <v>30</v>
-      </c>
-      <c r="F68" s="5">
-        <v>6</v>
-      </c>
-      <c r="G68" s="5">
-        <v>1825</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="C69" s="5">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>23</v>
-      </c>
-      <c r="E69" s="5">
-        <v>30</v>
-      </c>
-      <c r="F69" s="5">
-        <v>6</v>
-      </c>
-      <c r="G69" s="5">
-        <v>1825</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C70" s="5">
-        <v>6</v>
-      </c>
-      <c r="D70" s="5">
-        <v>6</v>
-      </c>
-      <c r="E70" s="5">
-        <v>30</v>
-      </c>
-      <c r="F70" s="5">
-        <v>4</v>
-      </c>
-      <c r="G70" s="5">
-        <v>1825</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>4</v>
+      </c>
+      <c r="E68" s="6">
+        <v>30</v>
+      </c>
+      <c r="F68" s="6">
+        <v>4</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>16</v>
+      </c>
+      <c r="E69" s="6">
+        <v>30</v>
+      </c>
+      <c r="F69" s="6">
+        <v>4</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>30</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C71" s="6">
+        <v>0</v>
+      </c>
+      <c r="D71" s="6">
         <v>6</v>
-      </c>
-      <c r="D71" s="6">
-        <v>4</v>
       </c>
       <c r="E71" s="6">
         <v>30</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E72" s="6">
         <v>30</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E73" s="6">
         <v>30</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E75" s="6">
         <v>30</v>
@@ -3042,22 +3042,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B76" s="6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C76" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D76" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E76" s="6">
         <v>30</v>
       </c>
       <c r="F76" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G76" s="6">
         <v>1825</v>
@@ -3067,27 +3067,27 @@
       </c>
       <c r="I76" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C77" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D77" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E77" s="6">
         <v>30</v>
       </c>
       <c r="F77" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77" s="6">
         <v>1825</v>
@@ -3097,27 +3097,27 @@
       </c>
       <c r="I77" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78" s="6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C78" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D78" s="6">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E78" s="6">
         <v>30</v>
       </c>
       <c r="F78" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G78" s="6">
         <v>1825</v>
@@ -3127,21 +3127,21 @@
       </c>
       <c r="I78" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B79" s="6">
         <v>0.3</v>
       </c>
       <c r="C79" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D79" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E79" s="6">
         <v>30</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B80" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C80" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D80" s="6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E80" s="6">
         <v>30</v>
@@ -3192,16 +3192,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81" s="6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C81" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D81" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E81" s="6">
         <v>30</v>
@@ -3222,112 +3222,112 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B82" s="6">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="C82" s="6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D82" s="6">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E82" s="6">
         <v>30</v>
       </c>
       <c r="F82" s="6">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G82" s="6">
         <v>1825</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>F82/4</f>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B83" s="6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="6">
+        <v>29</v>
+      </c>
+      <c r="D83" s="6">
+        <v>104</v>
+      </c>
+      <c r="E83" s="6">
+        <v>30</v>
+      </c>
+      <c r="F83" s="6">
+        <v>32</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1825</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" ref="I83:I97" si="2">F83/4</f>
         <v>8</v>
-      </c>
-      <c r="D83" s="6">
-        <v>15</v>
-      </c>
-      <c r="E83" s="6">
-        <v>30</v>
-      </c>
-      <c r="F83" s="6">
-        <v>2</v>
-      </c>
-      <c r="G83" s="6">
-        <v>1825</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B84" s="6">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D84" s="6">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E84" s="6">
         <v>30</v>
       </c>
       <c r="F84" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G84" s="6">
         <v>1825</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B85" s="6">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="C85" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E85" s="6">
         <v>30</v>
       </c>
       <c r="F85" s="6">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G85" s="6">
         <v>1825</v>
@@ -3336,28 +3336,28 @@
         <v>93</v>
       </c>
       <c r="I85" s="6">
-        <f>F85/4</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" s="6">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="C86" s="6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D86" s="6">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E86" s="6">
         <v>30</v>
       </c>
       <c r="F86" s="6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G86" s="6">
         <v>1825</v>
@@ -3366,28 +3366,28 @@
         <v>93</v>
       </c>
       <c r="I86" s="6">
-        <f t="shared" ref="I86:I100" si="2">F86/4</f>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" s="6">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="C87" s="6">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D87" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E87" s="6">
         <v>30</v>
       </c>
       <c r="F87" s="6">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G87" s="6">
         <v>1825</v>
@@ -3397,27 +3397,27 @@
       </c>
       <c r="I87" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C88" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E88" s="6">
         <v>30</v>
       </c>
       <c r="F88" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G88" s="6">
         <v>1825</v>
@@ -3427,27 +3427,27 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" s="6">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="C89" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D89" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E89" s="6">
         <v>30</v>
       </c>
       <c r="F89" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G89" s="6">
         <v>1825</v>
@@ -3457,27 +3457,27 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B90" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C90" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D90" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E90" s="6">
         <v>30</v>
       </c>
       <c r="F90" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G90" s="6">
         <v>1825</v>
@@ -3487,27 +3487,27 @@
       </c>
       <c r="I90" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" s="6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C91" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="6">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E91" s="6">
         <v>30</v>
       </c>
       <c r="F91" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G91" s="6">
         <v>1825</v>
@@ -3517,27 +3517,27 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B92" s="6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C92" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D92" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E92" s="6">
         <v>30</v>
       </c>
       <c r="F92" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G92" s="6">
         <v>1825</v>
@@ -3547,27 +3547,27 @@
       </c>
       <c r="I92" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B93" s="6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C93" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" s="6">
         <v>30</v>
       </c>
       <c r="F93" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G93" s="6">
         <v>1825</v>
@@ -3577,27 +3577,27 @@
       </c>
       <c r="I93" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" s="6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C94" s="6">
         <v>6</v>
       </c>
       <c r="D94" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E94" s="6">
         <v>30</v>
       </c>
       <c r="F94" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G94" s="6">
         <v>1825</v>
@@ -3607,27 +3607,27 @@
       </c>
       <c r="I94" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B95" s="6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C95" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E95" s="6">
         <v>30</v>
       </c>
       <c r="F95" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G95" s="6">
         <v>1825</v>
@@ -3637,21 +3637,21 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C96" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E96" s="6">
         <v>30</v>
@@ -3672,16 +3672,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B97" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C97" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="6">
         <v>30</v>
@@ -3701,113 +3701,113 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C98" s="6">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6">
-        <v>5</v>
-      </c>
-      <c r="E98" s="6">
-        <v>30</v>
-      </c>
-      <c r="F98" s="6">
+      <c r="A98" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7">
+        <v>6</v>
+      </c>
+      <c r="E98" s="7">
+        <v>30</v>
+      </c>
+      <c r="F98" s="7">
+        <v>8</v>
+      </c>
+      <c r="G98" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I98" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G98" s="6">
-        <v>1825</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I98" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="6">
+      <c r="A99" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C99" s="7">
+        <v>6</v>
+      </c>
+      <c r="D99" s="7">
+        <v>11</v>
+      </c>
+      <c r="E99" s="7">
+        <v>30</v>
+      </c>
+      <c r="F99" s="7">
+        <v>6</v>
+      </c>
+      <c r="G99" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I99" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="7">
         <v>0.1</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C100" s="7">
+        <v>0</v>
+      </c>
+      <c r="D100" s="7">
+        <v>11</v>
+      </c>
+      <c r="E100" s="7">
+        <v>30</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4</v>
+      </c>
+      <c r="G100" s="7">
+        <v>1825</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I100" s="7">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D99" s="6">
-        <v>1</v>
-      </c>
-      <c r="E99" s="6">
-        <v>30</v>
-      </c>
-      <c r="F99" s="6">
-        <v>4</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1825</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I99" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C100" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1</v>
-      </c>
-      <c r="E100" s="6">
-        <v>30</v>
-      </c>
-      <c r="F100" s="6">
-        <v>4</v>
-      </c>
-      <c r="G100" s="6">
-        <v>1825</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I100" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="B101" s="7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C101" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E101" s="7">
         <v>30</v>
       </c>
       <c r="F101" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G101" s="7">
         <v>1825</v>
@@ -3816,28 +3816,28 @@
         <v>110</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>F101/2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="B102" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C102" s="7">
         <v>6</v>
       </c>
       <c r="D102" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E102" s="7">
         <v>30</v>
       </c>
       <c r="F102" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G102" s="7">
         <v>1825</v>
@@ -3846,28 +3846,28 @@
         <v>110</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>F102/2</f>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B103" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C103" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E103" s="7">
         <v>30</v>
       </c>
       <c r="F103" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G103" s="7">
         <v>1825</v>
@@ -3876,8 +3876,8 @@
         <v>110</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>F103/2</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
